--- a/1-python-in-excel-essentials/1-python-in-excel-first-steps/exercises/python-excel-first-steps-exercise-solutions.xlsx
+++ b/1-python-in-excel-essentials/1-python-in-excel-first-steps/exercises/python-excel-first-steps-exercise-solutions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27204"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29011"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\python-powered-excel\1-python-in-excel-first-steps\exercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-excel-magic-python-copilot\1-python-in-excel-essentials\1-python-in-excel-first-steps\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86A9497-08AA-4DB2-A8D9-E0B35C789F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ECFC24C-372C-4614-894F-985DF005EE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{0D981583-3AC3-451C-AD61-645D383C35BB}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,14 +55,14 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
+          <xlrd:rvb i="3"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="6"/>
+          <xlrd:rvb i="4"/>
         </ext>
       </extLst>
     </bk>
@@ -82,19 +83,35 @@
 </metadata>
 </file>
 
-<file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
-<pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
-  <pythonScript>
-    <code>penguins_df = xl(%P2%, headers=True)
-penguins_df</code>
-  </pythonScript>
-  <pythonScript>
-    <code>penguins_df.columns</code>
-  </pythonScript>
-  <pythonScript>
-    <code>sns.scatterplot(x='bill_length_mm', y='body_mass_g', data=penguins_df)</code>
-  </pythonScript>
-</pythonScripts>
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>penguins_df = xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>penguins_df.columns</code>
+    </pythonScript>
+    <pythonScript>
+      <code xml:space="preserve">sns.scatterplot(x='bill_length_mm', y='body_mass_g', data=penguins_df) </code>
+    </pythonScript>
+  </pythonScripts>
+</python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -200,6 +217,60 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>384148</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C639E4C-E4FD-6E53-C17D-B6C4A661E665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!I11"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14836588" y="4314265"/>
+          <a:ext cx="5303531" cy="3959360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -241,8 +312,9 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
-  <a r="12" c="7">
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="12" c="8">
+    <v t="s"/>
     <v t="s">species</v>
     <v t="s">island</v>
     <v t="s">bill_length_mm</v>
@@ -250,6 +322,7 @@
     <v t="s">flipper_length_mm</v>
     <v t="s">body_mass_g</v>
     <v t="s">sex</v>
+    <v>0</v>
     <v t="s">Adelie</v>
     <v t="s">Torgersen</v>
     <v>39.1</v>
@@ -257,6 +330,7 @@
     <v>181</v>
     <v>3750</v>
     <v t="s">Male</v>
+    <v>1</v>
     <v t="s">Adelie</v>
     <v t="s">Torgersen</v>
     <v>39.5</v>
@@ -264,6 +338,7 @@
     <v>186</v>
     <v>3800</v>
     <v t="s">Female</v>
+    <v>2</v>
     <v t="s">Adelie</v>
     <v t="s">Torgersen</v>
     <v>40.299999999999997</v>
@@ -271,13 +346,15 @@
     <v>195</v>
     <v>3250</v>
     <v t="s">Female</v>
+    <v>3</v>
     <v t="s">Adelie</v>
     <v t="s">Torgersen</v>
-    <v t="e">#NUM!</v>
-    <v t="e">#NUM!</v>
-    <v t="e">#NUM!</v>
-    <v t="e">#NUM!</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
     <v t="s"/>
+    <v>4</v>
     <v t="s">Adelie</v>
     <v t="s">Torgersen</v>
     <v>36.700000000000003</v>
@@ -292,13 +369,16 @@
     <v t="s">...</v>
     <v t="s">...</v>
     <v t="s">...</v>
+    <v t="s">...</v>
+    <v>339</v>
     <v t="s">Gentoo</v>
     <v t="s">Biscoe</v>
-    <v t="e">#NUM!</v>
-    <v t="e">#NUM!</v>
-    <v t="e">#NUM!</v>
-    <v t="e">#NUM!</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
     <v t="s"/>
+    <v>340</v>
     <v t="s">Gentoo</v>
     <v t="s">Biscoe</v>
     <v>46.8</v>
@@ -306,6 +386,7 @@
     <v>215</v>
     <v>4850</v>
     <v t="s">Female</v>
+    <v>341</v>
     <v t="s">Gentoo</v>
     <v t="s">Biscoe</v>
     <v>50.4</v>
@@ -313,6 +394,7 @@
     <v>222</v>
     <v>5750</v>
     <v t="s">Male</v>
+    <v>342</v>
     <v t="s">Gentoo</v>
     <v t="s">Biscoe</v>
     <v>45.2</v>
@@ -320,6 +402,7 @@
     <v>212</v>
     <v>5200</v>
     <v t="s">Female</v>
+    <v>343</v>
     <v t="s">Gentoo</v>
     <v t="s">Biscoe</v>
     <v>49.9</v>
@@ -328,56 +411,46 @@
     <v>5400</v>
     <v t="s">Male</v>
   </a>
-  <a r="2">
-    <v>580</v>
-    <v>433</v>
-  </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <rv s="0">
-    <v>0</v>
+    <fb>0</fb>
+    <v>2</v>
   </rv>
   <rv s="1">
-    <v>DataFrame</v>
-    <v>1</v>
     <v>0</v>
   </rv>
   <rv s="2">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>1</v>
+  </rv>
+  <rv s="3">
     <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
     <v>DataFrame</v>
     <v xml:space="preserve">    species     island  bill_length_mm  bill_depth_mm  flipper_length_mm  \
 0    Adelie  Torgersen            39.1           18.7              181.0   
 1    Adelie  Torgersen            39.5           17.4              186.0   
 2    Adelie  Torgersen  ...</v>
-    <v>1</v>
+    <v>2</v>
+    <v>3</v>
   </rv>
-  <rv s="3">
+  <rv s="4">
     <v>0</v>
     <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>2</v>
-    <v>3</v>
-    <v>4</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=580x433 at 0x7F906875F430&gt;</v>
-    <v>5</v>
+    <v>Image generated by Python</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
 <rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
   <s t="_array">
     <k n="array" t="a"/>
   </s>
@@ -391,23 +464,19 @@
     <k n="Python_typeName" t="s"/>
     <k n="Python_str" t="s"/>
     <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
   </s>
   <s t="_localImage">
     <k n="_rvRel:LocalImageIdentifier" t="i"/>
     <k n="CalcOrigin" t="i"/>
-  </s>
-  <s t="_entity">
-    <k n="_DisplayString" t="s"/>
-    <k n="_Format" t="spb"/>
-    <k n="image" t="r"/>
-    <k n="size" t="r"/>
+    <k n="Text" t="s"/>
   </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="3">
+  <spbData count="4">
     <spb s="0">
       <v>344</v>
       <v>7</v>
@@ -421,12 +490,17 @@
     <spb s="2">
       <v>1</v>
     </spb>
+    <spb s="3">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
   <s>
     <k n="drw" t="i"/>
     <k n="dcol" t="i"/>
@@ -438,19 +512,29 @@
     <k n="ArrayCardInfo" t="spb"/>
   </s>
   <s>
-    <k n="image" t="i"/>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
   </s>
 </spbStructures>
 </file>
 
 <file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+  </dxfs>
   <richProperties>
-    <rPr n="IsHeroField" t="b"/>
+    <rPr n="NumberFormat" t="s"/>
   </richProperties>
   <richStyles>
-    <rSty>
-      <rpv i="0">1</rpv>
+    <rSty dxfid="0">
+      <rpv i="0">0;-0;"nan"</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -797,23 +881,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C59FBE-C1CC-42BE-B162-F54769FD95AA}">
   <dimension ref="A1:I345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.15" outlineLevelCol="1" x14ac:dyDescent="1.05"/>
+  <sheetFormatPr defaultRowHeight="34.200000000000003" outlineLevelCol="1" x14ac:dyDescent="1.3"/>
   <cols>
-    <col min="1" max="2" width="8.68359375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="13.68359375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="13.3125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="14.68359375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="12.0546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.68359375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.68359375" collapsed="1"/>
+    <col min="1" max="2" width="8.6796875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="13.6796875" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.31640625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="14.6796875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.04296875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.6796875" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.6796875"/>
     <col min="9" max="9" width="12.2265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="1" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -840,7 +924,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="2" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -863,7 +947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="3" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -890,7 +974,7 @@
         <v>species</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="4" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -916,7 +1000,7 @@
         <v>island</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="5" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -930,7 +1014,7 @@
         <v>bill_length_mm</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="6" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -956,7 +1040,7 @@
         <v>bill_depth_mm</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="7" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -982,7 +1066,7 @@
         <v>flipper_length_mm</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="8" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1008,7 +1092,7 @@
         <v>body_mass_g</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="9" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1118,7 @@
         <v>sex</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="10" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1057,7 +1141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="11" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1080,11 +1164,11 @@
         <v>11</v>
       </c>
       <c r="I11" t="e" cm="1" vm="2">
-        <f t="array" ref="I11">_xlfn._xlws.PY(2,1)</f>
+        <f t="array" ref="I11">_xlfn._xlws.PY(2,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="12" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1107,7 +1191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="13" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1130,7 +1214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="14" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1153,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="15" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1176,7 +1260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="1.05">
+    <row r="16" spans="1:9" x14ac:dyDescent="1.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1199,7 +1283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="17" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1222,7 +1306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="18" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1245,7 +1329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="19" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1268,7 +1352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="20" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="21" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1314,7 +1398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="22" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1337,7 +1421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="23" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +1444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="24" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1383,7 +1467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="25" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1406,7 +1490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="26" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1429,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="27" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1452,7 +1536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="28" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1475,7 +1559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="29" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="30" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1521,7 +1605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="31" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1544,7 +1628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="32" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1567,7 +1651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="33" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1590,7 +1674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="34" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1613,7 +1697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="35" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1636,7 +1720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="36" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="37" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1682,7 +1766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="38" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1705,7 +1789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="39" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1728,7 +1812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="40" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1751,7 +1835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="41" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="42" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1797,7 +1881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="43" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1820,7 +1904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="44" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1843,7 +1927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="45" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1866,7 +1950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="46" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1889,7 +1973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="47" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1912,7 +1996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="48" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1935,7 +2019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="49" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1958,7 +2042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="50" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1981,7 +2065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="51" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2004,7 +2088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="52" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2027,7 +2111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="53" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2050,7 +2134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="54" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2073,7 +2157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="55" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2096,7 +2180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="56" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2119,7 +2203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="57" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2142,7 +2226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="58" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2165,7 +2249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="59" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2188,7 +2272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="60" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2211,7 +2295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="61" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2234,7 +2318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="62" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2257,7 +2341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="63" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2280,7 +2364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="64" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2303,7 +2387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="65" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2326,7 +2410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="66" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2349,7 +2433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="67" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2372,7 +2456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="68" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2395,7 +2479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="69" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2418,7 +2502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="70" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2441,7 +2525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="71" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2464,7 +2548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="72" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2487,7 +2571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="73" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2510,7 +2594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="74" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2533,7 +2617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="75" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2556,7 +2640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="76" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2579,7 +2663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="77" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2602,7 +2686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="78" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2625,7 +2709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="79" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2648,7 +2732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="80" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2671,7 +2755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="81" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2694,7 +2778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="82" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2717,7 +2801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="83" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2740,7 +2824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="84" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2763,7 +2847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="85" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2786,7 +2870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="86" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2809,7 +2893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="87" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2832,7 +2916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="88" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2855,7 +2939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="89" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2878,7 +2962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="90" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -2901,7 +2985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="91" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2924,7 +3008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="92" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2947,7 +3031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="93" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2970,7 +3054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="94" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -2993,7 +3077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="95" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3016,7 +3100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="96" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3039,7 +3123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="97" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3062,7 +3146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="98" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3085,7 +3169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="99" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3108,7 +3192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="100" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3131,7 +3215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="101" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3154,7 +3238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="102" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3177,7 +3261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="103" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3200,7 +3284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="104" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -3223,7 +3307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="105" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3246,7 +3330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="106" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3269,7 +3353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="107" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3292,7 +3376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="108" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3315,7 +3399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="109" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3338,7 +3422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="110" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3361,7 +3445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="111" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3384,7 +3468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="112" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3407,7 +3491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="113" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3430,7 +3514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="114" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3453,7 +3537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="115" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -3476,7 +3560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="116" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3499,7 +3583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="117" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3522,7 +3606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="118" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -3545,7 +3629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="119" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -3568,7 +3652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="120" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3591,7 +3675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="121" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3614,7 +3698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="122" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3637,7 +3721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="123" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -3660,7 +3744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="124" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3683,7 +3767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="125" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3706,7 +3790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="126" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3729,7 +3813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="127" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -3752,7 +3836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="128" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -3775,7 +3859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="129" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3798,7 +3882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="130" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -3821,7 +3905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="131" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -3844,7 +3928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="132" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -3867,7 +3951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="133" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -3890,7 +3974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="134" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3913,7 +3997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="135" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -3936,7 +4020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="136" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -3959,7 +4043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="137" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -3982,7 +4066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="138" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -4005,7 +4089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="139" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -4028,7 +4112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="140" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -4051,7 +4135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="141" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -4074,7 +4158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="142" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -4097,7 +4181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="143" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4120,7 +4204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="144" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -4143,7 +4227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="145" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -4166,7 +4250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="146" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -4189,7 +4273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="147" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -4212,7 +4296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="148" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4235,7 +4319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="149" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4258,7 +4342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="150" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -4281,7 +4365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="151" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4304,7 +4388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="152" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -4327,7 +4411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="153" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4350,7 +4434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="154" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -4373,7 +4457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="155" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -4396,7 +4480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="156" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -4419,7 +4503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="157" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -4442,7 +4526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="158" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -4465,7 +4549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="159" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -4488,7 +4572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="160" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -4511,7 +4595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="161" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -4534,7 +4618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="162" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -4557,7 +4641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="163" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -4580,7 +4664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="164" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -4603,7 +4687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="165" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -4626,7 +4710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="166" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A166" t="s">
         <v>14</v>
       </c>
@@ -4649,7 +4733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="167" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -4672,7 +4756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="168" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -4695,7 +4779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="169" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -4718,7 +4802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="170" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -4741,7 +4825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="171" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -4764,7 +4848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="172" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -4787,7 +4871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="173" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -4810,7 +4894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="174" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -4833,7 +4917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="175" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -4856,7 +4940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="176" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -4879,7 +4963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="177" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -4902,7 +4986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="178" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -4925,7 +5009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="179" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -4948,7 +5032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="180" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -4971,7 +5055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="181" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -4994,7 +5078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="182" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -5017,7 +5101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="183" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -5040,7 +5124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="184" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -5063,7 +5147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="185" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -5086,7 +5170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="186" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -5109,7 +5193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="187" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -5132,7 +5216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="188" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -5155,7 +5239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="189" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -5178,7 +5262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="190" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -5201,7 +5285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="191" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -5224,7 +5308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="192" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -5247,7 +5331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="193" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A193" t="s">
         <v>14</v>
       </c>
@@ -5270,7 +5354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="194" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -5293,7 +5377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="195" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -5316,7 +5400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="196" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -5339,7 +5423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="197" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -5362,7 +5446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="198" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -5385,7 +5469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="199" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -5408,7 +5492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="200" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -5431,7 +5515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="201" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A201" t="s">
         <v>14</v>
       </c>
@@ -5454,7 +5538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="202" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -5477,7 +5561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="203" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -5500,7 +5584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="204" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -5523,7 +5607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="205" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -5546,7 +5630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="206" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A206" t="s">
         <v>14</v>
       </c>
@@ -5569,7 +5653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="207" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A207" t="s">
         <v>14</v>
       </c>
@@ -5592,7 +5676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="208" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -5615,7 +5699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="209" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -5638,7 +5722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="210" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -5661,7 +5745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="211" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A211" t="s">
         <v>14</v>
       </c>
@@ -5684,7 +5768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="212" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A212" t="s">
         <v>14</v>
       </c>
@@ -5707,7 +5791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="213" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A213" t="s">
         <v>14</v>
       </c>
@@ -5730,7 +5814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="214" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A214" t="s">
         <v>14</v>
       </c>
@@ -5753,7 +5837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="215" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -5776,7 +5860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="216" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A216" t="s">
         <v>14</v>
       </c>
@@ -5799,7 +5883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="217" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A217" t="s">
         <v>14</v>
       </c>
@@ -5822,7 +5906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="218" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A218" t="s">
         <v>14</v>
       </c>
@@ -5845,7 +5929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="219" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A219" t="s">
         <v>14</v>
       </c>
@@ -5868,7 +5952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="220" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -5891,7 +5975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="221" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -5914,7 +5998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="222" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A222" t="s">
         <v>15</v>
       </c>
@@ -5937,7 +6021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="223" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A223" t="s">
         <v>15</v>
       </c>
@@ -5960,7 +6044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="224" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A224" t="s">
         <v>15</v>
       </c>
@@ -5983,7 +6067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="225" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -6006,7 +6090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="226" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A226" t="s">
         <v>15</v>
       </c>
@@ -6029,7 +6113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="227" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A227" t="s">
         <v>15</v>
       </c>
@@ -6052,7 +6136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="228" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -6075,7 +6159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="229" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -6098,7 +6182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="230" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A230" t="s">
         <v>15</v>
       </c>
@@ -6121,7 +6205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="231" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A231" t="s">
         <v>15</v>
       </c>
@@ -6144,7 +6228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="232" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A232" t="s">
         <v>15</v>
       </c>
@@ -6167,7 +6251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="233" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A233" t="s">
         <v>15</v>
       </c>
@@ -6190,7 +6274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="234" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A234" t="s">
         <v>15</v>
       </c>
@@ -6213,7 +6297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="235" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A235" t="s">
         <v>15</v>
       </c>
@@ -6236,7 +6320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="236" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -6259,7 +6343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="237" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -6282,7 +6366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="238" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -6305,7 +6389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="239" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A239" t="s">
         <v>15</v>
       </c>
@@ -6328,7 +6412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="240" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A240" t="s">
         <v>15</v>
       </c>
@@ -6351,7 +6435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="241" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A241" t="s">
         <v>15</v>
       </c>
@@ -6374,7 +6458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="242" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A242" t="s">
         <v>15</v>
       </c>
@@ -6397,7 +6481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="243" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A243" t="s">
         <v>15</v>
       </c>
@@ -6420,7 +6504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="244" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A244" t="s">
         <v>15</v>
       </c>
@@ -6443,7 +6527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="245" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A245" t="s">
         <v>15</v>
       </c>
@@ -6466,7 +6550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="246" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A246" t="s">
         <v>15</v>
       </c>
@@ -6489,7 +6573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="247" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A247" t="s">
         <v>15</v>
       </c>
@@ -6512,7 +6596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="248" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -6535,7 +6619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="249" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A249" t="s">
         <v>15</v>
       </c>
@@ -6558,7 +6642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="250" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A250" t="s">
         <v>15</v>
       </c>
@@ -6581,7 +6665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="251" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A251" t="s">
         <v>15</v>
       </c>
@@ -6604,7 +6688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="252" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A252" t="s">
         <v>15</v>
       </c>
@@ -6627,7 +6711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="253" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A253" t="s">
         <v>15</v>
       </c>
@@ -6650,7 +6734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="254" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A254" t="s">
         <v>15</v>
       </c>
@@ -6673,7 +6757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="255" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A255" t="s">
         <v>15</v>
       </c>
@@ -6696,7 +6780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="256" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A256" t="s">
         <v>15</v>
       </c>
@@ -6719,7 +6803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="257" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A257" t="s">
         <v>15</v>
       </c>
@@ -6742,7 +6826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="258" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A258" t="s">
         <v>15</v>
       </c>
@@ -6765,7 +6849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="259" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A259" t="s">
         <v>15</v>
       </c>
@@ -6788,7 +6872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="260" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A260" t="s">
         <v>15</v>
       </c>
@@ -6811,7 +6895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="261" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -6834,7 +6918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="262" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A262" t="s">
         <v>15</v>
       </c>
@@ -6857,7 +6941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="263" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -6880,7 +6964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="264" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A264" t="s">
         <v>15</v>
       </c>
@@ -6903,7 +6987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="265" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A265" t="s">
         <v>15</v>
       </c>
@@ -6926,7 +7010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="266" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A266" t="s">
         <v>15</v>
       </c>
@@ -6949,7 +7033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="267" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A267" t="s">
         <v>15</v>
       </c>
@@ -6972,7 +7056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="268" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A268" t="s">
         <v>15</v>
       </c>
@@ -6995,7 +7079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="269" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A269" t="s">
         <v>15</v>
       </c>
@@ -7018,7 +7102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="270" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A270" t="s">
         <v>15</v>
       </c>
@@ -7041,7 +7125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="271" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A271" t="s">
         <v>15</v>
       </c>
@@ -7064,7 +7148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="272" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A272" t="s">
         <v>15</v>
       </c>
@@ -7087,7 +7171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="273" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A273" t="s">
         <v>15</v>
       </c>
@@ -7110,7 +7194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="274" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A274" t="s">
         <v>15</v>
       </c>
@@ -7133,7 +7217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="275" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A275" t="s">
         <v>15</v>
       </c>
@@ -7156,7 +7240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="276" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A276" t="s">
         <v>15</v>
       </c>
@@ -7179,7 +7263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="277" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A277" t="s">
         <v>15</v>
       </c>
@@ -7202,7 +7286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="278" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A278" t="s">
         <v>15</v>
       </c>
@@ -7225,7 +7309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="279" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A279" t="s">
         <v>15</v>
       </c>
@@ -7248,7 +7332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="280" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A280" t="s">
         <v>15</v>
       </c>
@@ -7271,7 +7355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="281" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A281" t="s">
         <v>15</v>
       </c>
@@ -7294,7 +7378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="282" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A282" t="s">
         <v>15</v>
       </c>
@@ -7317,7 +7401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="283" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A283" t="s">
         <v>15</v>
       </c>
@@ -7340,7 +7424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="284" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A284" t="s">
         <v>15</v>
       </c>
@@ -7363,7 +7447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="285" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A285" t="s">
         <v>15</v>
       </c>
@@ -7386,7 +7470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="286" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A286" t="s">
         <v>15</v>
       </c>
@@ -7409,7 +7493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="287" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A287" t="s">
         <v>15</v>
       </c>
@@ -7432,7 +7516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="288" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A288" t="s">
         <v>15</v>
       </c>
@@ -7455,7 +7539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="289" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A289" t="s">
         <v>15</v>
       </c>
@@ -7478,7 +7562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="290" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A290" t="s">
         <v>15</v>
       </c>
@@ -7501,7 +7585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="291" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A291" t="s">
         <v>15</v>
       </c>
@@ -7524,7 +7608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="292" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A292" t="s">
         <v>15</v>
       </c>
@@ -7547,7 +7631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="293" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A293" t="s">
         <v>15</v>
       </c>
@@ -7570,7 +7654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="294" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A294" t="s">
         <v>15</v>
       </c>
@@ -7593,7 +7677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="295" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -7616,7 +7700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="296" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A296" t="s">
         <v>15</v>
       </c>
@@ -7639,7 +7723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="297" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -7662,7 +7746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="298" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A298" t="s">
         <v>15</v>
       </c>
@@ -7685,7 +7769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="299" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A299" t="s">
         <v>15</v>
       </c>
@@ -7708,7 +7792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="300" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A300" t="s">
         <v>15</v>
       </c>
@@ -7731,7 +7815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="301" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -7754,7 +7838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="302" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A302" t="s">
         <v>15</v>
       </c>
@@ -7777,7 +7861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="303" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A303" t="s">
         <v>15</v>
       </c>
@@ -7800,7 +7884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="304" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A304" t="s">
         <v>15</v>
       </c>
@@ -7823,7 +7907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="305" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A305" t="s">
         <v>15</v>
       </c>
@@ -7846,7 +7930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="306" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A306" t="s">
         <v>15</v>
       </c>
@@ -7869,7 +7953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="307" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A307" t="s">
         <v>15</v>
       </c>
@@ -7892,7 +7976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="308" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -7915,7 +7999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="309" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A309" t="s">
         <v>15</v>
       </c>
@@ -7938,7 +8022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="310" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -7961,7 +8045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="311" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A311" t="s">
         <v>15</v>
       </c>
@@ -7984,7 +8068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="312" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A312" t="s">
         <v>15</v>
       </c>
@@ -8007,7 +8091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="313" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -8030,7 +8114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="314" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A314" t="s">
         <v>15</v>
       </c>
@@ -8053,7 +8137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="315" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A315" t="s">
         <v>15</v>
       </c>
@@ -8076,7 +8160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="316" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A316" t="s">
         <v>15</v>
       </c>
@@ -8099,7 +8183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="317" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A317" t="s">
         <v>15</v>
       </c>
@@ -8122,7 +8206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="318" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A318" t="s">
         <v>15</v>
       </c>
@@ -8145,7 +8229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="319" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A319" t="s">
         <v>15</v>
       </c>
@@ -8168,7 +8252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="320" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A320" t="s">
         <v>15</v>
       </c>
@@ -8191,7 +8275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="321" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A321" t="s">
         <v>15</v>
       </c>
@@ -8214,7 +8298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="322" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A322" t="s">
         <v>15</v>
       </c>
@@ -8237,7 +8321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="323" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A323" t="s">
         <v>15</v>
       </c>
@@ -8260,7 +8344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="324" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A324" t="s">
         <v>15</v>
       </c>
@@ -8283,7 +8367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="325" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A325" t="s">
         <v>15</v>
       </c>
@@ -8306,7 +8390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="326" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A326" t="s">
         <v>15</v>
       </c>
@@ -8329,7 +8413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="327" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A327" t="s">
         <v>15</v>
       </c>
@@ -8352,7 +8436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="328" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A328" t="s">
         <v>15</v>
       </c>
@@ -8375,7 +8459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="329" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A329" t="s">
         <v>15</v>
       </c>
@@ -8398,7 +8482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="330" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A330" t="s">
         <v>15</v>
       </c>
@@ -8421,7 +8505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="331" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -8444,7 +8528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="332" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -8467,7 +8551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="333" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A333" t="s">
         <v>15</v>
       </c>
@@ -8490,7 +8574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="334" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -8513,7 +8597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="335" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A335" t="s">
         <v>15</v>
       </c>
@@ -8536,7 +8620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="336" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A336" t="s">
         <v>15</v>
       </c>
@@ -8559,7 +8643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="337" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A337" t="s">
         <v>15</v>
       </c>
@@ -8582,7 +8666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="338" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -8605,7 +8689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="339" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A339" t="s">
         <v>15</v>
       </c>
@@ -8628,7 +8712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="340" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A340" t="s">
         <v>15</v>
       </c>
@@ -8651,7 +8735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="341" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A341" t="s">
         <v>15</v>
       </c>
@@ -8662,7 +8746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="342" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A342" t="s">
         <v>15</v>
       </c>
@@ -8685,7 +8769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="343" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A343" t="s">
         <v>15</v>
       </c>
@@ -8708,7 +8792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="344" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -8731,7 +8815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="1.05">
+    <row r="345" spans="1:7" x14ac:dyDescent="1.3">
       <c r="A345" t="s">
         <v>15</v>
       </c>
@@ -8756,8 +8840,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>